--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/NORTH_DAKOTA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/NORTH_DAKOTA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C14">
@@ -698,7 +698,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C45">
@@ -1035,7 +1035,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C48">
@@ -1105,7 +1105,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C53">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C58">
@@ -1484,7 +1484,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C81">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C84">
@@ -1554,7 +1554,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C86">
@@ -1598,7 +1598,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C89">
@@ -1883,7 +1883,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C109">
@@ -2078,41 +2078,6 @@
       </c>
       <c r="D123">
         <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/NORTH_DAKOTA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/NORTH_DAKOTA_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Simojovel</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Ignacio Zaragoza</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Monclova</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tepehuanes</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Santiago Tulantepec De Lugo Guerrero</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Cihuatlán</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Colotlán</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Buenavista</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1399,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>San Juan Lalana</t>
@@ -1412,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Sebastián Nicananduta</t>
@@ -1425,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1456,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1469,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1482,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -1495,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Zacatlán</t>
@@ -1508,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1596,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -1609,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -1622,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1635,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1679,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -1692,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -1705,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1736,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1767,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Padilla</t>
@@ -1780,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1811,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1842,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Cazones</t>
@@ -1855,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -1868,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -1881,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -1894,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Puente Nacional</t>
@@ -1907,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -1920,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1933,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1946,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Zongolica</t>
@@ -1959,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1990,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -2003,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Genaro Codina</t>
@@ -2016,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -2029,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Juchipila</t>
@@ -2042,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Valparaíso</t>
@@ -2055,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Total</t>
